--- a/Whiteboard.xlsx
+++ b/Whiteboard.xlsx
@@ -4,17 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>https://teams.microsoft.com/l/meetup-join/19%3ameeting_ZDFlYTRhNGQtNzQ0YS00N2VkLWJkZTctZDU4NTkwOWJmYjNl%40thread.v2/0?context=%7b%22Tid%22%3a%22c8823c91-be81-4f89-b024-6c3dd789c106%22%2c%22Oid%22%3a%22488c5e0d-7481-446b-969c-785ee43b51d3%22%7d</t>
   </si>
@@ -35,13 +38,52 @@
   </si>
   <si>
     <t>https://github.com/atingupta2005/Azure-Developer.git</t>
+  </si>
+  <si>
+    <t>Service Bus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Web App </t>
+  </si>
+  <si>
+    <t>API Service</t>
+  </si>
+  <si>
+    <t>Service Bus - Queue</t>
+  </si>
+  <si>
+    <t>Need to Poll for messages</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>App</t>
+  </si>
+  <si>
+    <t>Subscriber 1</t>
+  </si>
+  <si>
+    <t>Subscriber 2</t>
+  </si>
+  <si>
+    <t>Subscriber 3</t>
+  </si>
+  <si>
+    <t>Subscriber 4</t>
+  </si>
+  <si>
+    <t>Queue</t>
+  </si>
+  <si>
+    <t>Queue - Distributer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,13 +99,62 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -78,9 +169,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -96,6 +195,800 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3143250" y="561976"/>
+          <a:ext cx="1047750" cy="333374"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6105525" y="428625"/>
+          <a:ext cx="847725" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Smiley Face 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="276225" y="257175"/>
+          <a:ext cx="657225" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="smileyFace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Smiley Face 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="209550" y="1123950"/>
+          <a:ext cx="657225" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="smileyFace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Smiley Face 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="247650" y="2047875"/>
+          <a:ext cx="657225" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="smileyFace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Smiley Face 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="809625" y="3314700"/>
+          <a:ext cx="657225" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="smileyFace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="933450" y="571500"/>
+          <a:ext cx="1047750" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="866775" y="1343025"/>
+          <a:ext cx="1181100" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1209675" y="904875"/>
+          <a:ext cx="1266825" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4829175" y="314325"/>
+          <a:ext cx="2428875" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4619625" y="1028700"/>
+          <a:ext cx="2752725" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4772025" y="1457325"/>
+          <a:ext cx="2495550" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4819650" y="1676400"/>
+          <a:ext cx="2495550" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8543925" y="371475"/>
+          <a:ext cx="1219200" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8543925" y="1543050"/>
+          <a:ext cx="1190625" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8543925" y="2190750"/>
+          <a:ext cx="1200150" cy="1123950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -387,7 +1280,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -432,4 +1325,404 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="G4:K14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="7:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G5" s="2"/>
+      <c r="H5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D2:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="H2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+    </row>
+    <row r="4" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+    </row>
+    <row r="5" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" s="5"/>
+    </row>
+    <row r="6" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+    </row>
+    <row r="7" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="H7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7" s="5"/>
+    </row>
+    <row r="8" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+    </row>
+    <row r="9" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+    </row>
+    <row r="10" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+    </row>
+    <row r="11" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+    </row>
+    <row r="12" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+    </row>
+    <row r="13" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+    </row>
+    <row r="14" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+    </row>
+    <row r="15" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+    </row>
+    <row r="16" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:R19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="6"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="Q3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="R3" s="9"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="M5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="6"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="M8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8" s="6"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="Q10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="R10" s="9"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" s="6"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+    </row>
+    <row r="18" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q18" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="R18" s="9"/>
+    </row>
+    <row r="19" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>